--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H2">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I2">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J2">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.051096333333333</v>
+        <v>0.03608766666666666</v>
       </c>
       <c r="N2">
-        <v>3.153289</v>
+        <v>0.108263</v>
       </c>
       <c r="O2">
-        <v>0.01101501731841816</v>
+        <v>0.0004053057704893844</v>
       </c>
       <c r="P2">
-        <v>0.01101501731841816</v>
+        <v>0.0004053057704893844</v>
       </c>
       <c r="Q2">
-        <v>49.36633345777221</v>
+        <v>2.070961170733555</v>
       </c>
       <c r="R2">
-        <v>444.2970011199499</v>
+        <v>18.638650536602</v>
       </c>
       <c r="S2">
-        <v>0.006397552542114335</v>
+        <v>0.0002651698587779059</v>
       </c>
       <c r="T2">
-        <v>0.006397552542114336</v>
+        <v>0.0002651698587779059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H3">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I3">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J3">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.37284199999999</v>
+        <v>0.020271</v>
       </c>
       <c r="N3">
-        <v>283.118526</v>
+        <v>0.060813</v>
       </c>
       <c r="O3">
-        <v>0.9889849826815819</v>
+        <v>0.0002276665141439914</v>
       </c>
       <c r="P3">
-        <v>0.988984982681582</v>
+        <v>0.0002276665141439913</v>
       </c>
       <c r="Q3">
-        <v>4432.363656673699</v>
+        <v>1.163290890478</v>
       </c>
       <c r="R3">
-        <v>39891.27291006329</v>
+        <v>10.469618014302</v>
       </c>
       <c r="S3">
-        <v>0.5744052149140035</v>
+        <v>0.0001489500071294975</v>
       </c>
       <c r="T3">
-        <v>0.5744052149140036</v>
+        <v>0.0001489500071294975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.34807866666667</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H4">
-        <v>43.04423600000001</v>
+        <v>172.160854</v>
       </c>
       <c r="I4">
-        <v>0.1774328689611447</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J4">
-        <v>0.1774328689611448</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.051096333333333</v>
+        <v>88.98176833333333</v>
       </c>
       <c r="N4">
-        <v>3.153289</v>
+        <v>266.945305</v>
       </c>
       <c r="O4">
-        <v>0.01101501731841816</v>
+        <v>0.9993670277153666</v>
       </c>
       <c r="P4">
-        <v>0.01101501731841816</v>
+        <v>0.9993670277153666</v>
       </c>
       <c r="Q4">
-        <v>15.08121287691156</v>
+        <v>5106.39240889894</v>
       </c>
       <c r="R4">
-        <v>135.730915892204</v>
+        <v>45957.53168009047</v>
       </c>
       <c r="S4">
-        <v>0.00195442612446363</v>
+        <v>0.6538323234001923</v>
       </c>
       <c r="T4">
-        <v>0.00195442612446363</v>
+        <v>0.6538323234001924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I5">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J5">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>94.37284199999999</v>
+        <v>0.03608766666666666</v>
       </c>
       <c r="N5">
-        <v>283.118526</v>
+        <v>0.108263</v>
       </c>
       <c r="O5">
-        <v>0.9889849826815819</v>
+        <v>0.0004053057704893844</v>
       </c>
       <c r="P5">
-        <v>0.988984982681582</v>
+        <v>0.0004053057704893844</v>
       </c>
       <c r="Q5">
-        <v>1354.068961012904</v>
+        <v>0.5177886802297778</v>
       </c>
       <c r="R5">
-        <v>12186.62064911614</v>
+        <v>4.660098122068001</v>
       </c>
       <c r="S5">
-        <v>0.1754784428366811</v>
+        <v>6.629866032915273E-05</v>
       </c>
       <c r="T5">
-        <v>0.1754784428366812</v>
+        <v>6.629866032915273E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.80387266666667</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H6">
-        <v>53.411618</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I6">
-        <v>0.2201683081933832</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J6">
-        <v>0.2201683081933832</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,33 +803,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.051096333333333</v>
+        <v>0.020271</v>
       </c>
       <c r="N6">
-        <v>3.153289</v>
+        <v>0.060813</v>
       </c>
       <c r="O6">
-        <v>0.01101501731841816</v>
+        <v>0.0002276665141439914</v>
       </c>
       <c r="P6">
-        <v>0.01101501731841816</v>
+        <v>0.0002276665141439913</v>
       </c>
       <c r="Q6">
-        <v>18.71358527906689</v>
+        <v>0.2908499026520001</v>
       </c>
       <c r="R6">
-        <v>168.422267511602</v>
+        <v>2.617649123868</v>
       </c>
       <c r="S6">
-        <v>0.002425157727716944</v>
+        <v>3.724098196610814E-05</v>
       </c>
       <c r="T6">
-        <v>0.002425157727716944</v>
+        <v>3.724098196610813E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.80387266666667</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H7">
-        <v>53.411618</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I7">
-        <v>0.2201683081933832</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J7">
-        <v>0.2201683081933832</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>94.37284199999999</v>
+        <v>88.98176833333333</v>
       </c>
       <c r="N7">
-        <v>283.118526</v>
+        <v>266.945305</v>
       </c>
       <c r="O7">
-        <v>0.9889849826815819</v>
+        <v>0.9993670277153666</v>
       </c>
       <c r="P7">
-        <v>0.988984982681582</v>
+        <v>0.9993670277153666</v>
       </c>
       <c r="Q7">
-        <v>1680.202062159452</v>
+        <v>1276.717411945776</v>
       </c>
       <c r="R7">
-        <v>15121.81855943507</v>
+        <v>11490.45670751198</v>
       </c>
       <c r="S7">
-        <v>0.2177431504656663</v>
+        <v>0.1634733574966247</v>
       </c>
       <c r="T7">
-        <v>0.2177431504656663</v>
+        <v>0.1634733574966247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.746361333333333</v>
+        <v>14.516389</v>
       </c>
       <c r="H8">
-        <v>5.239084</v>
+        <v>43.549167</v>
       </c>
       <c r="I8">
-        <v>0.02159605538935411</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J8">
-        <v>0.02159605538935411</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.051096333333333</v>
+        <v>0.03608766666666666</v>
       </c>
       <c r="N8">
-        <v>3.153289</v>
+        <v>0.108263</v>
       </c>
       <c r="O8">
-        <v>0.01101501731841816</v>
+        <v>0.0004053057704893844</v>
       </c>
       <c r="P8">
-        <v>0.01101501731841816</v>
+        <v>0.0004053057704893844</v>
       </c>
       <c r="Q8">
-        <v>1.835593994141778</v>
+        <v>0.5238626074356666</v>
       </c>
       <c r="R8">
-        <v>16.520345947276</v>
+        <v>4.714763466920999</v>
       </c>
       <c r="S8">
-        <v>0.0002378809241232534</v>
+        <v>6.707637767227526E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002378809241232534</v>
+        <v>6.707637767227526E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.516389</v>
+      </c>
+      <c r="H9">
+        <v>43.549167</v>
+      </c>
+      <c r="I9">
+        <v>0.1654957381714162</v>
+      </c>
+      <c r="J9">
+        <v>0.1654957381714162</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.020271</v>
+      </c>
+      <c r="N9">
+        <v>0.060813</v>
+      </c>
+      <c r="O9">
+        <v>0.0002276665141439914</v>
+      </c>
+      <c r="P9">
+        <v>0.0002276665141439913</v>
+      </c>
+      <c r="Q9">
+        <v>0.294261721419</v>
+      </c>
+      <c r="R9">
+        <v>2.648355492771</v>
+      </c>
+      <c r="S9">
+        <v>3.767783781517301E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.7677837815173E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.746361333333333</v>
-      </c>
-      <c r="H9">
-        <v>5.239084</v>
-      </c>
-      <c r="I9">
-        <v>0.02159605538935411</v>
-      </c>
-      <c r="J9">
-        <v>0.02159605538935411</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>94.37284199999999</v>
-      </c>
-      <c r="N9">
-        <v>283.118526</v>
-      </c>
-      <c r="O9">
-        <v>0.9889849826815819</v>
-      </c>
-      <c r="P9">
-        <v>0.988984982681582</v>
-      </c>
-      <c r="Q9">
-        <v>164.809082185576</v>
-      </c>
-      <c r="R9">
-        <v>1483.281739670184</v>
-      </c>
-      <c r="S9">
-        <v>0.02135817446523085</v>
-      </c>
-      <c r="T9">
-        <v>0.02135817446523086</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.516389</v>
+      </c>
+      <c r="H10">
+        <v>43.549167</v>
+      </c>
+      <c r="I10">
+        <v>0.1654957381714162</v>
+      </c>
+      <c r="J10">
+        <v>0.1654957381714162</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>88.98176833333333</v>
+      </c>
+      <c r="N10">
+        <v>266.945305</v>
+      </c>
+      <c r="O10">
+        <v>0.9993670277153666</v>
+      </c>
+      <c r="P10">
+        <v>0.9993670277153666</v>
+      </c>
+      <c r="Q10">
+        <v>1291.693963034548</v>
+      </c>
+      <c r="R10">
+        <v>11625.24566731094</v>
+      </c>
+      <c r="S10">
+        <v>0.1653909839559287</v>
+      </c>
+      <c r="T10">
+        <v>0.1653909839559287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.46316</v>
+      </c>
+      <c r="H11">
+        <v>4.389480000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.01668092142356404</v>
+      </c>
+      <c r="J11">
+        <v>0.01668092142356404</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03608766666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.108263</v>
+      </c>
+      <c r="O11">
+        <v>0.0004053057704893844</v>
+      </c>
+      <c r="P11">
+        <v>0.0004053057704893844</v>
+      </c>
+      <c r="Q11">
+        <v>0.05280203036</v>
+      </c>
+      <c r="R11">
+        <v>0.47521827324</v>
+      </c>
+      <c r="S11">
+        <v>6.760873710050501E-06</v>
+      </c>
+      <c r="T11">
+        <v>6.760873710050501E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.46316</v>
+      </c>
+      <c r="H12">
+        <v>4.389480000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.01668092142356404</v>
+      </c>
+      <c r="J12">
+        <v>0.01668092142356404</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.020271</v>
+      </c>
+      <c r="N12">
+        <v>0.060813</v>
+      </c>
+      <c r="O12">
+        <v>0.0002276665141439914</v>
+      </c>
+      <c r="P12">
+        <v>0.0002276665141439913</v>
+      </c>
+      <c r="Q12">
+        <v>0.02965971636</v>
+      </c>
+      <c r="R12">
+        <v>0.26693744724</v>
+      </c>
+      <c r="S12">
+        <v>3.79768723321265E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.79768723321265E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.46316</v>
+      </c>
+      <c r="H13">
+        <v>4.389480000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.01668092142356404</v>
+      </c>
+      <c r="J13">
+        <v>0.01668092142356404</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>88.98176833333333</v>
+      </c>
+      <c r="N13">
+        <v>266.945305</v>
+      </c>
+      <c r="O13">
+        <v>0.9993670277153666</v>
+      </c>
+      <c r="P13">
+        <v>0.9993670277153666</v>
+      </c>
+      <c r="Q13">
+        <v>130.1945641546</v>
+      </c>
+      <c r="R13">
+        <v>1171.7510773914</v>
+      </c>
+      <c r="S13">
+        <v>0.01667036286262077</v>
+      </c>
+      <c r="T13">
+        <v>0.01667036286262077</v>
       </c>
     </row>
   </sheetData>
